--- a/成绩单翻译本.xlsx
+++ b/成绩单翻译本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f47af77092ccff/github/Resume/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="8_{41DAC370-0AF5-4AF0-850D-33B2C500D0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BB40F86-13C4-4741-903B-6566631EEFD6}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="8_{41DAC370-0AF5-4AF0-850D-33B2C500D0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E78EE32C-FC1D-4623-96AE-6C426548E655}"/>
   <bookViews>
     <workbookView xWindow="21840" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{526B5A3F-42C4-4B3C-8DA8-328D7DC77CB7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>Freshmen seminar (IoT Engineering)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,14 @@
   </si>
   <si>
     <t>Mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>School Transcript of Jiangnan University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Translation(unofficial)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +379,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -380,12 +397,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -394,12 +426,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,6 +466,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,994 +769,1017 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3269387-756C-4913-9391-BE7FAFDDC1AA}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="48.796875" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.73046875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C7" s="7">
         <v>3.4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
         <v>2.5</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="7">
         <v>3.8</v>
       </c>
-      <c r="D7">
+      <c r="D9" s="7">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="7">
         <v>2.7</v>
       </c>
-      <c r="D8">
+      <c r="D10" s="7">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7">
         <v>3.4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="7">
         <v>3.4</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="7">
         <v>3.4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C16" s="7">
         <v>3.4</v>
       </c>
-      <c r="D14">
+      <c r="D16" s="7">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="B18" s="7">
         <v>5</v>
       </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B18">
+      <c r="B20" s="7">
         <v>0.5</v>
       </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
+      <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C21" s="7">
         <v>3.4</v>
       </c>
-      <c r="D19">
+      <c r="D21" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B20">
+      <c r="B22" s="7">
         <v>0.5</v>
       </c>
-      <c r="C20">
+      <c r="C22" s="7">
         <v>3.4</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>2.8</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B22">
+      <c r="B24" s="7">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C24" s="7">
         <v>2.8</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B25" s="7">
         <v>1.5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B26" s="7">
         <v>3.5</v>
       </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B27" s="7">
         <v>4.5</v>
       </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B28" s="7">
         <v>0.5</v>
       </c>
-      <c r="C26">
+      <c r="C28" s="7">
         <v>2.4</v>
       </c>
-      <c r="D26">
+      <c r="D28" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B27">
+      <c r="B29" s="7">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B28">
+      <c r="B30" s="7">
         <v>2.5</v>
       </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
+      <c r="C30" s="7">
+        <v>4</v>
+      </c>
+      <c r="D30" s="7">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B30">
+      <c r="B32" s="7">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C32" s="7">
         <v>3.4</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
-      <c r="D31">
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32">
+      <c r="B34" s="7">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C34" s="7">
         <v>3.8</v>
       </c>
-      <c r="D32">
+      <c r="D34" s="7">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B33">
+      <c r="B35" s="7">
         <v>2</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B36" s="7">
         <v>3.5</v>
       </c>
-      <c r="C34">
+      <c r="C36" s="7">
         <v>3.8</v>
       </c>
-      <c r="D34">
+      <c r="D36" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35">
+      <c r="B37" s="7">
+        <v>3</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7">
         <v>3.8</v>
       </c>
-      <c r="D36">
+      <c r="D38" s="7">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B37">
+      <c r="B39" s="7">
         <v>1</v>
       </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C39" s="7">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B38">
+      <c r="B40" s="7">
         <v>0.5</v>
       </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C40" s="7">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B39">
+      <c r="B41" s="7">
         <v>0.5</v>
       </c>
-      <c r="C39">
+      <c r="C41" s="7">
         <v>3.4</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B42" s="7">
+        <v>3</v>
+      </c>
+      <c r="C42" s="7">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
+      <c r="B43" s="7">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3.4</v>
       </c>
-      <c r="D41">
+      <c r="D43" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B42">
+      <c r="B44" s="7">
         <v>2</v>
       </c>
-      <c r="C42">
+      <c r="C44" s="7">
         <v>3.4</v>
       </c>
-      <c r="D42">
+      <c r="D44" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B43">
+      <c r="B45" s="7">
         <v>1</v>
       </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
+      <c r="C45" s="7">
+        <v>4</v>
+      </c>
+      <c r="D45" s="7">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B44">
+      <c r="B46" s="7">
         <v>1.5</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
+      <c r="B47" s="7">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7">
         <v>3.4</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
+      <c r="B48" s="7">
+        <v>3</v>
+      </c>
+      <c r="C48" s="7">
         <v>1.4</v>
       </c>
-      <c r="D46">
+      <c r="D48" s="7">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47">
+      <c r="B49" s="7">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7">
         <v>3.8</v>
       </c>
-      <c r="D47">
+      <c r="D49" s="7">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48">
+      <c r="B50" s="7">
+        <v>3</v>
+      </c>
+      <c r="C50" s="7">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="D49">
+      <c r="B51" s="7">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
+        <v>3</v>
+      </c>
+      <c r="D51" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B50">
+      <c r="B52" s="7">
         <v>2</v>
       </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C52" s="7">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B51">
+      <c r="B53" s="7">
         <v>2</v>
       </c>
-      <c r="C51">
+      <c r="C53" s="7">
         <v>2.8</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B52">
+      <c r="B54" s="7">
         <v>2</v>
       </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C54" s="7">
+        <v>4</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B53">
+      <c r="B55" s="7">
         <v>2</v>
       </c>
-      <c r="C53">
+      <c r="C55" s="7">
         <v>3.4</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B54">
+      <c r="B56" s="7">
         <v>2</v>
       </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C56" s="7">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B55">
+      <c r="B57" s="7">
         <v>0.5</v>
       </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C57" s="7">
+        <v>4</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B56">
+      <c r="B58" s="7">
         <v>1.5</v>
       </c>
-      <c r="D56" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B57">
+      <c r="B59" s="7">
         <v>1.5</v>
       </c>
-      <c r="D57" t="s">
+      <c r="C59" s="7"/>
+      <c r="D59" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58">
+      <c r="B60" s="7">
+        <v>3</v>
+      </c>
+      <c r="C60" s="7">
         <v>1.4</v>
       </c>
-      <c r="D58">
+      <c r="D60" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59">
+      <c r="B61" s="7">
+        <v>3</v>
+      </c>
+      <c r="C61" s="7">
+        <v>4</v>
+      </c>
+      <c r="D61" s="7">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B60">
+      <c r="B62" s="7">
         <v>2</v>
       </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C62" s="7">
+        <v>4</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B61">
+      <c r="B63" s="7">
         <v>2</v>
       </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C63" s="7">
+        <v>4</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B62">
+      <c r="B64" s="7">
         <v>2</v>
       </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C64" s="7">
+        <v>4</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B63">
+      <c r="B65" s="7">
         <v>0.5</v>
       </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C65" s="7">
+        <v>4</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B64">
+      <c r="B66" s="7">
         <v>1</v>
       </c>
-      <c r="C64">
-        <v>4</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C66" s="7">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B65">
+      <c r="B67" s="7">
         <v>0.5</v>
       </c>
-      <c r="C65">
+      <c r="C67" s="7">
         <v>3.4</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D67" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B66">
+      <c r="B68" s="7">
         <v>1</v>
       </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C68" s="7">
+        <v>4</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B67">
+      <c r="B69" s="7">
         <v>1</v>
       </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C69" s="7">
+        <v>4</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B68">
+      <c r="B70" s="7">
         <v>2.5</v>
       </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
-      <c r="D68">
+      <c r="C70" s="7">
+        <v>4</v>
+      </c>
+      <c r="D70" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B69">
+      <c r="B71" s="7">
         <v>2.5</v>
       </c>
-      <c r="C69">
+      <c r="C71" s="7">
         <v>3.4</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D71" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B70">
+      <c r="B72" s="7">
         <v>1.5</v>
       </c>
-      <c r="C70">
+      <c r="C72" s="7">
         <v>2.7</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B71">
+      <c r="B73" s="7">
         <v>0.5</v>
       </c>
-      <c r="C71">
+      <c r="C73" s="7">
         <v>3.4</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" s="7" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
